--- a/Code/Results/Cases/Case_3_71/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_71/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.76600949231628</v>
+        <v>11.10402464666999</v>
       </c>
       <c r="C2">
-        <v>9.043374143032809</v>
+        <v>6.605890326123556</v>
       </c>
       <c r="D2">
-        <v>8.910390998120013</v>
+        <v>10.06068743220359</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>26.8662641168914</v>
+        <v>35.84741385976312</v>
       </c>
       <c r="G2">
-        <v>30.53071188515599</v>
+        <v>38.38553369384999</v>
       </c>
       <c r="H2">
-        <v>10.59757036089906</v>
+        <v>16.661634794818</v>
       </c>
       <c r="I2">
-        <v>15.59508785928075</v>
+        <v>23.78251054217777</v>
       </c>
       <c r="J2">
-        <v>8.301706055417636</v>
+        <v>11.40713408812248</v>
       </c>
       <c r="K2">
-        <v>12.59980640930727</v>
+        <v>11.5094742519409</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.56607960442355</v>
+        <v>19.47155882203474</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.8324544623232</v>
+        <v>10.84240845027909</v>
       </c>
       <c r="C3">
-        <v>8.418379786746511</v>
+        <v>6.408871746482109</v>
       </c>
       <c r="D3">
-        <v>8.429888426955944</v>
+        <v>9.976600997507543</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.23286472143327</v>
+        <v>35.846223594061</v>
       </c>
       <c r="G3">
-        <v>29.8262582513278</v>
+        <v>38.38502775382708</v>
       </c>
       <c r="H3">
-        <v>10.59343696857475</v>
+        <v>16.70479343571246</v>
       </c>
       <c r="I3">
-        <v>15.63402764327187</v>
+        <v>23.85757545181176</v>
       </c>
       <c r="J3">
-        <v>8.029041150478292</v>
+        <v>11.39008536600348</v>
       </c>
       <c r="K3">
-        <v>11.7754625247238</v>
+        <v>11.33472328269805</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.78976560917247</v>
+        <v>19.53581380096228</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.22615957799875</v>
+        <v>10.68097425995302</v>
       </c>
       <c r="C4">
-        <v>8.013201161673496</v>
+        <v>6.286389066424225</v>
       </c>
       <c r="D4">
-        <v>8.125024173140339</v>
+        <v>9.92671928208437</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>25.86069306143537</v>
+        <v>35.85439256951782</v>
       </c>
       <c r="G4">
-        <v>29.41905720133737</v>
+        <v>38.39606701838809</v>
       </c>
       <c r="H4">
-        <v>10.59842944192273</v>
+        <v>16.73413182004761</v>
       </c>
       <c r="I4">
-        <v>15.6707646147036</v>
+        <v>23.90823762047877</v>
       </c>
       <c r="J4">
-        <v>7.86263732901835</v>
+        <v>11.38192175820146</v>
       </c>
       <c r="K4">
-        <v>11.24105798936363</v>
+        <v>11.22851366106375</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.92987743338233</v>
+        <v>19.57706484800984</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.97071156380894</v>
+        <v>10.61508913256396</v>
       </c>
       <c r="C5">
-        <v>7.842650996374011</v>
+        <v>6.236179453921483</v>
       </c>
       <c r="D5">
-        <v>7.998451675881077</v>
+        <v>9.90685083142362</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>25.71331826937629</v>
+        <v>35.85995850767058</v>
       </c>
       <c r="G5">
-        <v>29.2595106779768</v>
+        <v>38.40341509033405</v>
       </c>
       <c r="H5">
-        <v>10.6022860102894</v>
+        <v>16.7468004504013</v>
       </c>
       <c r="I5">
-        <v>15.68881841478198</v>
+        <v>23.9300303534531</v>
       </c>
       <c r="J5">
-        <v>7.795165411421029</v>
+        <v>11.37917673372885</v>
       </c>
       <c r="K5">
-        <v>11.01614832722152</v>
+        <v>11.18556102633872</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.98769860186928</v>
+        <v>19.59432853567608</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.92778695649974</v>
+        <v>10.60414600426195</v>
       </c>
       <c r="C6">
-        <v>7.814001537434337</v>
+        <v>6.2278267893505</v>
       </c>
       <c r="D6">
-        <v>7.977297690252779</v>
+        <v>9.903579944600347</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>25.68910788468421</v>
+        <v>35.86101778394463</v>
       </c>
       <c r="G6">
-        <v>29.23340424595621</v>
+        <v>38.4048071598221</v>
       </c>
       <c r="H6">
-        <v>10.60303436301904</v>
+        <v>16.74894710496108</v>
       </c>
       <c r="I6">
-        <v>15.69199834836659</v>
+        <v>23.93371826092495</v>
       </c>
       <c r="J6">
-        <v>7.783984783094645</v>
+        <v>11.37875611584672</v>
       </c>
       <c r="K6">
-        <v>10.97837051625797</v>
+        <v>11.17845022668236</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.99734432664059</v>
+        <v>19.59722259155759</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.22274851391245</v>
+        <v>10.68008597512994</v>
       </c>
       <c r="C7">
-        <v>8.010923137671632</v>
+        <v>6.28571301032061</v>
       </c>
       <c r="D7">
-        <v>8.123326439680056</v>
+        <v>9.926449446894498</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25.85868805420322</v>
+        <v>35.8544585784057</v>
       </c>
       <c r="G7">
-        <v>29.41687961352046</v>
+        <v>38.39615458724838</v>
       </c>
       <c r="H7">
-        <v>10.59847416931894</v>
+        <v>16.73429978787878</v>
       </c>
       <c r="I7">
-        <v>15.67099579671608</v>
+        <v>23.90852688171285</v>
       </c>
       <c r="J7">
-        <v>7.861725891586101</v>
+        <v>11.38188237985553</v>
       </c>
       <c r="K7">
-        <v>11.23805370628998</v>
+        <v>11.22793298362089</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.93065425981935</v>
+        <v>19.57729583392528</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.45095194961351</v>
+        <v>11.0140456112162</v>
       </c>
       <c r="C8">
-        <v>8.83229447096779</v>
+        <v>6.538320654518006</v>
       </c>
       <c r="D8">
-        <v>8.746827424336466</v>
+        <v>10.03134351443181</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>26.64444445983355</v>
+        <v>35.84515615298688</v>
       </c>
       <c r="G8">
-        <v>30.2825762769757</v>
+        <v>38.38300145948556</v>
       </c>
       <c r="H8">
-        <v>10.59453903886709</v>
+        <v>16.67592620707044</v>
       </c>
       <c r="I8">
-        <v>15.60576521878073</v>
+        <v>23.8074427054968</v>
       </c>
       <c r="J8">
-        <v>8.20752953838227</v>
+        <v>11.40077889766457</v>
       </c>
       <c r="K8">
-        <v>12.32141617605525</v>
+        <v>11.44902731173841</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.6426497098441</v>
+        <v>19.49334154598113</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.59960623160878</v>
+        <v>11.65830805114891</v>
       </c>
       <c r="C9">
-        <v>10.27520724470154</v>
+        <v>7.018290966166156</v>
       </c>
       <c r="D9">
-        <v>9.886867642369483</v>
+        <v>10.25002298250521</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>28.31431995051963</v>
+        <v>35.89751470194918</v>
       </c>
       <c r="G9">
-        <v>32.17949246548685</v>
+        <v>38.4473757914193</v>
       </c>
       <c r="H9">
-        <v>10.64980197391965</v>
+        <v>16.58401703854962</v>
       </c>
       <c r="I9">
-        <v>15.58615887529168</v>
+        <v>23.64558993566007</v>
       </c>
       <c r="J9">
-        <v>8.890333161543589</v>
+        <v>11.4560019240184</v>
       </c>
       <c r="K9">
-        <v>14.22342798550014</v>
+        <v>11.88881149526043</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.09846593171967</v>
+        <v>19.34291176025022</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.02368872772563</v>
+        <v>12.1197719052258</v>
       </c>
       <c r="C10">
-        <v>11.23626091329962</v>
+        <v>7.357402628283151</v>
       </c>
       <c r="D10">
-        <v>10.66950744318561</v>
+        <v>10.41737150087737</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>29.6147447568226</v>
+        <v>35.97891947421144</v>
       </c>
       <c r="G10">
-        <v>33.69168958069389</v>
+        <v>38.54965708354825</v>
       </c>
       <c r="H10">
-        <v>10.73326361098592</v>
+        <v>16.53029391461566</v>
       </c>
       <c r="I10">
-        <v>15.64692492210631</v>
+        <v>23.54898003209166</v>
       </c>
       <c r="J10">
-        <v>9.390939374126413</v>
+        <v>11.5074662898642</v>
       </c>
       <c r="K10">
-        <v>15.48802374986921</v>
+        <v>12.21251195138464</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.70917787052843</v>
+        <v>19.24095920079437</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.63887010525411</v>
+        <v>12.3260905011904</v>
       </c>
       <c r="C11">
-        <v>11.65270686358096</v>
+        <v>7.507979429078353</v>
       </c>
       <c r="D11">
-        <v>11.01305063018889</v>
+        <v>10.49468269676926</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>30.22134209413658</v>
+        <v>36.02522375104964</v>
       </c>
       <c r="G11">
-        <v>34.40469471124408</v>
+        <v>38.60808375214962</v>
       </c>
       <c r="H11">
-        <v>10.78150842224564</v>
+        <v>16.50886053021581</v>
       </c>
       <c r="I11">
-        <v>15.69290436002479</v>
+        <v>23.50989934327642</v>
       </c>
       <c r="J11">
-        <v>9.61781194690345</v>
+        <v>11.53319581357081</v>
       </c>
       <c r="K11">
-        <v>16.03519138180546</v>
+        <v>12.35924156741034</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.53388521817248</v>
+        <v>19.1964193627953</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.86720501551414</v>
+        <v>12.40362142933437</v>
       </c>
       <c r="C12">
-        <v>11.8074860221287</v>
+        <v>7.564413532170583</v>
       </c>
       <c r="D12">
-        <v>11.14132012142682</v>
+        <v>10.5241054100361</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>30.45313780720603</v>
+        <v>36.04408439491807</v>
       </c>
       <c r="G12">
-        <v>34.67825103840447</v>
+        <v>38.63191182426542</v>
       </c>
       <c r="H12">
-        <v>10.80133569419837</v>
+        <v>16.50117716557246</v>
       </c>
       <c r="I12">
-        <v>15.71312059430831</v>
+        <v>23.49580258746496</v>
       </c>
       <c r="J12">
-        <v>9.703559669796356</v>
+        <v>11.54326746837245</v>
       </c>
       <c r="K12">
-        <v>16.23841193062001</v>
+        <v>12.41467610371495</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.46772248998471</v>
+        <v>19.17981627905209</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.81823332637187</v>
+        <v>12.38695152669295</v>
       </c>
       <c r="C13">
-        <v>11.77428038385339</v>
+        <v>7.552286334345632</v>
       </c>
       <c r="D13">
-        <v>11.11377635394184</v>
+        <v>10.51776255622434</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>30.40312441907301</v>
+        <v>36.0399635646179</v>
       </c>
       <c r="G13">
-        <v>34.61917827050777</v>
+        <v>38.62670442326426</v>
       </c>
       <c r="H13">
-        <v>10.79699496006792</v>
+        <v>16.50281264601156</v>
       </c>
       <c r="I13">
-        <v>15.70863922671163</v>
+        <v>23.49880730745793</v>
       </c>
       <c r="J13">
-        <v>9.685100195170946</v>
+        <v>11.54108383222344</v>
       </c>
       <c r="K13">
-        <v>16.19482072943305</v>
+        <v>12.40274384372494</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.4819628667617</v>
+        <v>19.1833803646183</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.65774753626495</v>
+        <v>12.33248142373231</v>
       </c>
       <c r="C14">
-        <v>11.66549878405033</v>
+        <v>7.512634342596153</v>
       </c>
       <c r="D14">
-        <v>11.0236400793849</v>
+        <v>10.49710051738193</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>30.24037051435534</v>
+        <v>36.02674889480198</v>
       </c>
       <c r="G14">
-        <v>34.42712931820511</v>
+        <v>38.61001002115145</v>
       </c>
       <c r="H14">
-        <v>10.78310793755491</v>
+        <v>16.50821973298186</v>
       </c>
       <c r="I14">
-        <v>15.69451038012703</v>
+        <v>23.5087255076357</v>
       </c>
       <c r="J14">
-        <v>9.624869946902914</v>
+        <v>11.5340178617553</v>
       </c>
       <c r="K14">
-        <v>16.05198985404917</v>
+        <v>12.36380508079939</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.52843787371825</v>
+        <v>19.1950481495484</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.55884579616361</v>
+        <v>12.29903685761615</v>
       </c>
       <c r="C15">
-        <v>11.5984885846282</v>
+        <v>7.488268466549666</v>
       </c>
       <c r="D15">
-        <v>10.9681910398364</v>
+        <v>10.48446281853427</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>30.14094948311209</v>
+        <v>36.0188270012415</v>
       </c>
       <c r="G15">
-        <v>34.30995568437408</v>
+        <v>38.60000574789854</v>
       </c>
       <c r="H15">
-        <v>10.77480702400409</v>
+        <v>16.51158814110105</v>
       </c>
       <c r="I15">
-        <v>15.68622634199943</v>
+        <v>23.51489221243421</v>
       </c>
       <c r="J15">
-        <v>9.587954790566908</v>
+        <v>11.52973237112106</v>
       </c>
       <c r="K15">
-        <v>15.96398541500959</v>
+        <v>12.33993563699492</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.55693211017516</v>
+        <v>19.2022292425917</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.9828345023096</v>
+        <v>12.10620907490791</v>
       </c>
       <c r="C16">
-        <v>11.2086330930427</v>
+        <v>7.347482984565605</v>
       </c>
       <c r="D16">
-        <v>10.64680218470942</v>
+        <v>10.41234083752782</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>29.57539819316726</v>
+        <v>35.97607939282796</v>
       </c>
       <c r="G16">
-        <v>33.6455932687558</v>
+        <v>38.54607757484221</v>
       </c>
       <c r="H16">
-        <v>10.73032434209306</v>
+        <v>16.53175518548502</v>
       </c>
       <c r="I16">
-        <v>15.64430335955672</v>
+        <v>23.55163219400318</v>
       </c>
       <c r="J16">
-        <v>9.376091756095912</v>
+        <v>11.5058310422688</v>
       </c>
       <c r="K16">
-        <v>15.45170467005682</v>
+        <v>12.20290767564369</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.72066631950348</v>
+        <v>19.24390688056742</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.62116081391931</v>
+        <v>11.986934222364</v>
       </c>
       <c r="C17">
-        <v>10.96420038069537</v>
+        <v>7.260129797707723</v>
       </c>
       <c r="D17">
-        <v>10.44641880381411</v>
+        <v>10.36838275251902</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>29.23224459366979</v>
+        <v>35.95222547196568</v>
       </c>
       <c r="G17">
-        <v>33.24441534527543</v>
+        <v>38.51603703446516</v>
       </c>
       <c r="H17">
-        <v>10.70572477885555</v>
+        <v>16.54489739134096</v>
       </c>
       <c r="I17">
-        <v>15.62340038440111</v>
+        <v>23.57541935633517</v>
       </c>
       <c r="J17">
-        <v>9.245868990210859</v>
+        <v>11.49175872612532</v>
       </c>
       <c r="K17">
-        <v>15.13028109541951</v>
+        <v>12.11867273788582</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.82154338140931</v>
+        <v>19.26994485735582</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.4100588016534</v>
+        <v>11.91799565310376</v>
       </c>
       <c r="C18">
-        <v>10.82165283359145</v>
+        <v>7.20954251225335</v>
       </c>
       <c r="D18">
-        <v>10.32998924948516</v>
+        <v>10.34321204347087</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>29.03628954651395</v>
+        <v>35.93937865844912</v>
       </c>
       <c r="G18">
-        <v>33.01603335951273</v>
+        <v>38.49987905985508</v>
       </c>
       <c r="H18">
-        <v>10.69253831687155</v>
+        <v>16.55273929125008</v>
       </c>
       <c r="I18">
-        <v>15.61309330515058</v>
+        <v>23.58955913568658</v>
       </c>
       <c r="J18">
-        <v>9.17088954812632</v>
+        <v>11.48388321556867</v>
       </c>
       <c r="K18">
-        <v>14.94275756320555</v>
+        <v>12.07017685991233</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.87973693561162</v>
+        <v>19.28509437183984</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.33805267068704</v>
+        <v>11.89459924338803</v>
       </c>
       <c r="C19">
-        <v>10.77305082853004</v>
+        <v>7.192357233090791</v>
       </c>
       <c r="D19">
-        <v>10.29036759353385</v>
+        <v>10.33470976607483</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>28.97018845569809</v>
+        <v>35.93517913827127</v>
       </c>
       <c r="G19">
-        <v>32.93911514821534</v>
+        <v>38.49460090266673</v>
       </c>
       <c r="H19">
-        <v>10.68823649879696</v>
+        <v>16.55544297838869</v>
       </c>
       <c r="I19">
-        <v>15.60989309910441</v>
+        <v>23.59442521858637</v>
       </c>
       <c r="J19">
-        <v>9.145490692940704</v>
+        <v>11.48125437532371</v>
       </c>
       <c r="K19">
-        <v>14.8788085310443</v>
+        <v>12.05375072117404</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.89947098956814</v>
+        <v>19.29025351546336</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.65997952391168</v>
+        <v>11.99966648055333</v>
       </c>
       <c r="C20">
-        <v>10.9904226878616</v>
+        <v>7.269464723556592</v>
       </c>
       <c r="D20">
-        <v>10.46787174247814</v>
+        <v>10.37305065961076</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>29.26862770304297</v>
+        <v>35.95467442342221</v>
       </c>
       <c r="G20">
-        <v>33.28687708325501</v>
+        <v>38.51911897771457</v>
       </c>
       <c r="H20">
-        <v>10.7082432456639</v>
+        <v>16.54346910109908</v>
       </c>
       <c r="I20">
-        <v>15.62544675594186</v>
+        <v>23.57283975075884</v>
       </c>
       <c r="J20">
-        <v>9.259739906855739</v>
+        <v>11.49323416704279</v>
       </c>
       <c r="K20">
-        <v>15.16477093719611</v>
+        <v>12.12764486301231</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.81078736392956</v>
+        <v>19.2671551580049</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.70501091568375</v>
+        <v>12.34849742984257</v>
       </c>
       <c r="C21">
-        <v>11.69752930275071</v>
+        <v>7.524297417109025</v>
       </c>
       <c r="D21">
-        <v>11.05016491031573</v>
+        <v>10.503165667347</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>30.28811902441705</v>
+        <v>36.03059443535048</v>
       </c>
       <c r="G21">
-        <v>34.48344256358139</v>
+        <v>38.61486742226513</v>
       </c>
       <c r="H21">
-        <v>10.7871439667134</v>
+        <v>16.50661978307249</v>
       </c>
       <c r="I21">
-        <v>15.69858289477404</v>
+        <v>23.50579321498287</v>
       </c>
       <c r="J21">
-        <v>9.642565754910756</v>
+        <v>11.53608443586168</v>
       </c>
       <c r="K21">
-        <v>16.09405024597255</v>
+        <v>12.3752462514846</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.51478149881302</v>
+        <v>19.19161390534553</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.36110147595929</v>
+        <v>12.57296369483239</v>
       </c>
       <c r="C22">
-        <v>12.14267690424394</v>
+        <v>7.68740725474076</v>
       </c>
       <c r="D22">
-        <v>11.42009907671403</v>
+        <v>10.58904712483834</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>30.96658058077372</v>
+        <v>36.0879383666405</v>
       </c>
       <c r="G22">
-        <v>35.2861866897611</v>
+        <v>38.68736662493448</v>
       </c>
       <c r="H22">
-        <v>10.84782916399759</v>
+        <v>16.4850607672858</v>
       </c>
       <c r="I22">
-        <v>15.76280942440899</v>
+        <v>23.46606870506753</v>
       </c>
       <c r="J22">
-        <v>9.891797334353445</v>
+        <v>11.56600141257911</v>
       </c>
       <c r="K22">
-        <v>16.67822181252749</v>
+        <v>12.53629400652379</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.32256686978989</v>
+        <v>19.14377681103671</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.01336974766851</v>
+        <v>12.45350808015608</v>
       </c>
       <c r="C23">
-        <v>11.9066258695782</v>
+        <v>7.600684081081782</v>
       </c>
       <c r="D23">
-        <v>11.22363625442535</v>
+        <v>10.54314116530989</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>30.60337847725994</v>
+        <v>36.056628688542</v>
       </c>
       <c r="G23">
-        <v>34.85586427438825</v>
+        <v>38.64776774969442</v>
       </c>
       <c r="H23">
-        <v>10.81457927233797</v>
+        <v>16.49633601105703</v>
       </c>
       <c r="I23">
-        <v>15.72697139281243</v>
+        <v>23.48689505927204</v>
       </c>
       <c r="J23">
-        <v>9.758876993763025</v>
+        <v>11.54986095135268</v>
       </c>
       <c r="K23">
-        <v>16.36853659654501</v>
+        <v>12.45042778654703</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.42505622869816</v>
+        <v>19.16916846328941</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.64243946751704</v>
+        <v>11.99391136011482</v>
       </c>
       <c r="C24">
-        <v>10.97857387911281</v>
+        <v>7.265245541691965</v>
       </c>
       <c r="D24">
-        <v>10.45817668685374</v>
+        <v>10.37093998124171</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>29.25217475563504</v>
+        <v>35.95356455084398</v>
       </c>
       <c r="G24">
-        <v>33.26767308618894</v>
+        <v>38.51772216443907</v>
       </c>
       <c r="H24">
-        <v>10.70710167466653</v>
+        <v>16.54411393942513</v>
       </c>
       <c r="I24">
-        <v>15.62451627681033</v>
+        <v>23.57400454453745</v>
       </c>
       <c r="J24">
-        <v>9.253469213047994</v>
+        <v>11.49256645060157</v>
       </c>
       <c r="K24">
-        <v>15.14918659648287</v>
+        <v>12.1235887732084</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.81564953963849</v>
+        <v>19.26841582046516</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.04576541297718</v>
+        <v>11.48573339505858</v>
       </c>
       <c r="C25">
-        <v>9.902498765811119</v>
+        <v>6.890544275511578</v>
       </c>
       <c r="D25">
-        <v>9.587854406751251</v>
+        <v>10.1895993685566</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>27.84929340365479</v>
+        <v>35.87579684522795</v>
       </c>
       <c r="G25">
-        <v>31.64526970571472</v>
+        <v>38.42029706366613</v>
       </c>
       <c r="H25">
-        <v>10.6276504853404</v>
+        <v>16.60646035996067</v>
       </c>
       <c r="I25">
-        <v>15.57893412612399</v>
+        <v>23.68546783406977</v>
       </c>
       <c r="J25">
-        <v>8.705551411607297</v>
+        <v>11.43913486467098</v>
       </c>
       <c r="K25">
-        <v>13.73242940637516</v>
+        <v>11.76950625880577</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.2436797161773</v>
+        <v>19.3820957921879</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_71/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_71/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.10402464666999</v>
+        <v>13.76600949231628</v>
       </c>
       <c r="C2">
-        <v>6.605890326123556</v>
+        <v>9.043374143032823</v>
       </c>
       <c r="D2">
-        <v>10.06068743220359</v>
+        <v>8.910390998119997</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>35.84741385976312</v>
+        <v>26.86626411689147</v>
       </c>
       <c r="G2">
-        <v>38.38553369384999</v>
+        <v>30.53071188515592</v>
       </c>
       <c r="H2">
-        <v>16.661634794818</v>
+        <v>10.59757036089913</v>
       </c>
       <c r="I2">
-        <v>23.78251054217777</v>
+        <v>15.59508785928081</v>
       </c>
       <c r="J2">
-        <v>11.40713408812248</v>
+        <v>8.301706055417648</v>
       </c>
       <c r="K2">
-        <v>11.5094742519409</v>
+        <v>12.59980640930725</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.47155882203474</v>
+        <v>12.56607960442355</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.84240845027909</v>
+        <v>12.83245446232324</v>
       </c>
       <c r="C3">
-        <v>6.408871746482109</v>
+        <v>8.41837978674655</v>
       </c>
       <c r="D3">
-        <v>9.976600997507543</v>
+        <v>8.429888426955989</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>35.846223594061</v>
+        <v>26.23286472143321</v>
       </c>
       <c r="G3">
-        <v>38.38502775382708</v>
+        <v>29.82625825132758</v>
       </c>
       <c r="H3">
-        <v>16.70479343571246</v>
+        <v>10.59343696857475</v>
       </c>
       <c r="I3">
-        <v>23.85757545181176</v>
+        <v>15.63402764327179</v>
       </c>
       <c r="J3">
-        <v>11.39008536600348</v>
+        <v>8.029041150478324</v>
       </c>
       <c r="K3">
-        <v>11.33472328269805</v>
+        <v>11.77546252472385</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.53581380096228</v>
+        <v>12.78976560917243</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.68097425995302</v>
+        <v>12.22615957799877</v>
       </c>
       <c r="C4">
-        <v>6.286389066424225</v>
+        <v>8.013201161673534</v>
       </c>
       <c r="D4">
-        <v>9.92671928208437</v>
+        <v>8.125024173140314</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>35.85439256951782</v>
+        <v>25.86069306143531</v>
       </c>
       <c r="G4">
-        <v>38.39606701838809</v>
+        <v>29.41905720133733</v>
       </c>
       <c r="H4">
-        <v>16.73413182004761</v>
+        <v>10.59842944192262</v>
       </c>
       <c r="I4">
-        <v>23.90823762047877</v>
+        <v>15.67076461470353</v>
       </c>
       <c r="J4">
-        <v>11.38192175820146</v>
+        <v>7.862637329018335</v>
       </c>
       <c r="K4">
-        <v>11.22851366106375</v>
+        <v>11.24105798936363</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.57706484800984</v>
+        <v>12.9298774333823</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.61508913256396</v>
+        <v>11.970711563809</v>
       </c>
       <c r="C5">
-        <v>6.236179453921483</v>
+        <v>7.842650996374048</v>
       </c>
       <c r="D5">
-        <v>9.90685083142362</v>
+        <v>7.998451675881125</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>35.85995850767058</v>
+        <v>25.71331826937621</v>
       </c>
       <c r="G5">
-        <v>38.40341509033405</v>
+        <v>29.25951067797658</v>
       </c>
       <c r="H5">
-        <v>16.7468004504013</v>
+        <v>10.6022860102894</v>
       </c>
       <c r="I5">
-        <v>23.9300303534531</v>
+        <v>15.6888184147819</v>
       </c>
       <c r="J5">
-        <v>11.37917673372885</v>
+        <v>7.795165411421035</v>
       </c>
       <c r="K5">
-        <v>11.18556102633872</v>
+        <v>11.01614832722155</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.59432853567608</v>
+        <v>12.98769860186925</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.60414600426195</v>
+        <v>11.92778695649965</v>
       </c>
       <c r="C6">
-        <v>6.2278267893505</v>
+        <v>7.814001537434343</v>
       </c>
       <c r="D6">
-        <v>9.903579944600347</v>
+        <v>7.977297690252698</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>35.86101778394463</v>
+        <v>25.68910788468438</v>
       </c>
       <c r="G6">
-        <v>38.4048071598221</v>
+        <v>29.2334042459566</v>
       </c>
       <c r="H6">
-        <v>16.74894710496108</v>
+        <v>10.60303436301917</v>
       </c>
       <c r="I6">
-        <v>23.93371826092495</v>
+        <v>15.69199834836678</v>
       </c>
       <c r="J6">
-        <v>11.37875611584672</v>
+        <v>7.783984783094638</v>
       </c>
       <c r="K6">
-        <v>11.17845022668236</v>
+        <v>10.97837051625788</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.59722259155759</v>
+        <v>12.99734432664059</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.68008597512994</v>
+        <v>12.22274851391247</v>
       </c>
       <c r="C7">
-        <v>6.28571301032061</v>
+        <v>8.010923137671618</v>
       </c>
       <c r="D7">
-        <v>9.926449446894498</v>
+        <v>8.123326439680111</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>35.8544585784057</v>
+        <v>25.85868805420329</v>
       </c>
       <c r="G7">
-        <v>38.39615458724838</v>
+        <v>29.41687961352045</v>
       </c>
       <c r="H7">
-        <v>16.73429978787878</v>
+        <v>10.59847416931899</v>
       </c>
       <c r="I7">
-        <v>23.90852688171285</v>
+        <v>15.6709957967161</v>
       </c>
       <c r="J7">
-        <v>11.38188237985553</v>
+        <v>7.861725891586061</v>
       </c>
       <c r="K7">
-        <v>11.22793298362089</v>
+        <v>11.23805370628997</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.57729583392528</v>
+        <v>12.93065425981938</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.0140456112162</v>
+        <v>13.45095194961348</v>
       </c>
       <c r="C8">
-        <v>6.538320654518006</v>
+        <v>8.832294470967621</v>
       </c>
       <c r="D8">
-        <v>10.03134351443181</v>
+        <v>8.746827424336466</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.84515615298688</v>
+        <v>26.64444445983382</v>
       </c>
       <c r="G8">
-        <v>38.38300145948556</v>
+        <v>30.282576276976</v>
       </c>
       <c r="H8">
-        <v>16.67592620707044</v>
+        <v>10.59453903886719</v>
       </c>
       <c r="I8">
-        <v>23.8074427054968</v>
+        <v>15.60576521878088</v>
       </c>
       <c r="J8">
-        <v>11.40077889766457</v>
+        <v>8.207529538382238</v>
       </c>
       <c r="K8">
-        <v>11.44902731173841</v>
+        <v>12.32141617605513</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.49334154598113</v>
+        <v>12.64264970984417</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.65830805114891</v>
+        <v>15.59960623160888</v>
       </c>
       <c r="C9">
-        <v>7.018290966166156</v>
+        <v>10.27520724470137</v>
       </c>
       <c r="D9">
-        <v>10.25002298250521</v>
+        <v>9.8868676423695</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>35.89751470194918</v>
+        <v>28.31431995051956</v>
       </c>
       <c r="G9">
-        <v>38.4473757914193</v>
+        <v>32.17949246548681</v>
       </c>
       <c r="H9">
-        <v>16.58401703854962</v>
+        <v>10.64980197391963</v>
       </c>
       <c r="I9">
-        <v>23.64558993566007</v>
+        <v>15.5861588752916</v>
       </c>
       <c r="J9">
-        <v>11.4560019240184</v>
+        <v>8.89033316154357</v>
       </c>
       <c r="K9">
-        <v>11.88881149526043</v>
+        <v>14.22342798550018</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.34291176025022</v>
+        <v>12.09846593171967</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.1197719052258</v>
+        <v>17.02368872772563</v>
       </c>
       <c r="C10">
-        <v>7.357402628283151</v>
+        <v>11.23626091329965</v>
       </c>
       <c r="D10">
-        <v>10.41737150087737</v>
+        <v>10.6695074431856</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>35.97891947421144</v>
+        <v>29.61474475682258</v>
       </c>
       <c r="G10">
-        <v>38.54965708354825</v>
+        <v>33.69168958069385</v>
       </c>
       <c r="H10">
-        <v>16.53029391461566</v>
+        <v>10.73326361098592</v>
       </c>
       <c r="I10">
-        <v>23.54898003209166</v>
+        <v>15.64692492210635</v>
       </c>
       <c r="J10">
-        <v>11.5074662898642</v>
+        <v>9.390939374126447</v>
       </c>
       <c r="K10">
-        <v>12.21251195138464</v>
+        <v>15.48802374986924</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.24095920079437</v>
+        <v>11.7091778705285</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.3260905011904</v>
+        <v>17.63887010525416</v>
       </c>
       <c r="C11">
-        <v>7.507979429078353</v>
+        <v>11.6527068635809</v>
       </c>
       <c r="D11">
-        <v>10.49468269676926</v>
+        <v>11.01305063018888</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>36.02522375104964</v>
+        <v>30.22134209413657</v>
       </c>
       <c r="G11">
-        <v>38.60808375214962</v>
+        <v>34.40469471124413</v>
       </c>
       <c r="H11">
-        <v>16.50886053021581</v>
+        <v>10.78150842224565</v>
       </c>
       <c r="I11">
-        <v>23.50989934327642</v>
+        <v>15.69290436002481</v>
       </c>
       <c r="J11">
-        <v>11.53319581357081</v>
+        <v>9.617811946903403</v>
       </c>
       <c r="K11">
-        <v>12.35924156741034</v>
+        <v>16.0351913818055</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>19.1964193627953</v>
+        <v>11.53388521817252</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.40362142933437</v>
+        <v>17.86720501551419</v>
       </c>
       <c r="C12">
-        <v>7.564413532170583</v>
+        <v>11.80748602212891</v>
       </c>
       <c r="D12">
-        <v>10.5241054100361</v>
+        <v>11.14132012142683</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>36.04408439491807</v>
+        <v>30.45313780720598</v>
       </c>
       <c r="G12">
-        <v>38.63191182426542</v>
+        <v>34.67825103840438</v>
       </c>
       <c r="H12">
-        <v>16.50117716557246</v>
+        <v>10.80133569419835</v>
       </c>
       <c r="I12">
-        <v>23.49580258746496</v>
+        <v>15.71312059430824</v>
       </c>
       <c r="J12">
-        <v>11.54326746837245</v>
+        <v>9.703559669796354</v>
       </c>
       <c r="K12">
-        <v>12.41467610371495</v>
+        <v>16.23841193062013</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>19.17981627905209</v>
+        <v>11.46772248998462</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.38695152669295</v>
+        <v>17.81823332637183</v>
       </c>
       <c r="C13">
-        <v>7.552286334345632</v>
+        <v>11.77428038385333</v>
       </c>
       <c r="D13">
-        <v>10.51776255622434</v>
+        <v>11.11377635394184</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>36.0399635646179</v>
+        <v>30.40312441907312</v>
       </c>
       <c r="G13">
-        <v>38.62670442326426</v>
+        <v>34.61917827050783</v>
       </c>
       <c r="H13">
-        <v>16.50281264601156</v>
+        <v>10.79699496006802</v>
       </c>
       <c r="I13">
-        <v>23.49880730745793</v>
+        <v>15.70863922671173</v>
       </c>
       <c r="J13">
-        <v>11.54108383222344</v>
+        <v>9.68510019517093</v>
       </c>
       <c r="K13">
-        <v>12.40274384372494</v>
+        <v>16.194820729433</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>19.1833803646183</v>
+        <v>11.48196286676173</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.33248142373231</v>
+        <v>17.65774753626497</v>
       </c>
       <c r="C14">
-        <v>7.512634342596153</v>
+        <v>11.66549878405027</v>
       </c>
       <c r="D14">
-        <v>10.49710051738193</v>
+        <v>11.02364007938489</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>36.02674889480198</v>
+        <v>30.24037051435536</v>
       </c>
       <c r="G14">
-        <v>38.61001002115145</v>
+        <v>34.4271293182051</v>
       </c>
       <c r="H14">
-        <v>16.50821973298186</v>
+        <v>10.78310793755494</v>
       </c>
       <c r="I14">
-        <v>23.5087255076357</v>
+        <v>15.69451038012703</v>
       </c>
       <c r="J14">
-        <v>11.5340178617553</v>
+        <v>9.624869946902907</v>
       </c>
       <c r="K14">
-        <v>12.36380508079939</v>
+        <v>16.05198985404918</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>19.1950481495484</v>
+        <v>11.52843787371828</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.29903685761615</v>
+        <v>17.55884579616366</v>
       </c>
       <c r="C15">
-        <v>7.488268466549666</v>
+        <v>11.59848858462821</v>
       </c>
       <c r="D15">
-        <v>10.48446281853427</v>
+        <v>10.96819103983638</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>36.0188270012415</v>
+        <v>30.1409494831121</v>
       </c>
       <c r="G15">
-        <v>38.60000574789854</v>
+        <v>34.30995568437424</v>
       </c>
       <c r="H15">
-        <v>16.51158814110105</v>
+        <v>10.77480702400399</v>
       </c>
       <c r="I15">
-        <v>23.51489221243421</v>
+        <v>15.68622634199945</v>
       </c>
       <c r="J15">
-        <v>11.52973237112106</v>
+        <v>9.587954790566934</v>
       </c>
       <c r="K15">
-        <v>12.33993563699492</v>
+        <v>15.96398541500957</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>19.2022292425917</v>
+        <v>11.55693211017517</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.10620907490791</v>
+        <v>16.98283450230968</v>
       </c>
       <c r="C16">
-        <v>7.347482984565605</v>
+        <v>11.20863309304256</v>
       </c>
       <c r="D16">
-        <v>10.41234083752782</v>
+        <v>10.64680218470943</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>35.97607939282796</v>
+        <v>29.57539819316723</v>
       </c>
       <c r="G16">
-        <v>38.54607757484221</v>
+        <v>33.64559326875577</v>
       </c>
       <c r="H16">
-        <v>16.53175518548502</v>
+        <v>10.73032434209306</v>
       </c>
       <c r="I16">
-        <v>23.55163219400318</v>
+        <v>15.64430335955666</v>
       </c>
       <c r="J16">
-        <v>11.5058310422688</v>
+        <v>9.376091756095882</v>
       </c>
       <c r="K16">
-        <v>12.20290767564369</v>
+        <v>15.45170467005682</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.24390688056742</v>
+        <v>11.72066631950348</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.986934222364</v>
+        <v>16.62116081391936</v>
       </c>
       <c r="C17">
-        <v>7.260129797707723</v>
+        <v>10.96420038069541</v>
       </c>
       <c r="D17">
-        <v>10.36838275251902</v>
+        <v>10.44641880381409</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>35.95222547196568</v>
+        <v>29.2322445936697</v>
       </c>
       <c r="G17">
-        <v>38.51603703446516</v>
+        <v>33.24441534527526</v>
       </c>
       <c r="H17">
-        <v>16.54489739134096</v>
+        <v>10.70572477885547</v>
       </c>
       <c r="I17">
-        <v>23.57541935633517</v>
+        <v>15.62340038440098</v>
       </c>
       <c r="J17">
-        <v>11.49175872612532</v>
+        <v>9.245868990210891</v>
       </c>
       <c r="K17">
-        <v>12.11867273788582</v>
+        <v>15.13028109541954</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.26994485735582</v>
+        <v>11.82154338140922</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.91799565310376</v>
+        <v>16.41005880165341</v>
       </c>
       <c r="C18">
-        <v>7.20954251225335</v>
+        <v>10.82165283359153</v>
       </c>
       <c r="D18">
-        <v>10.34321204347087</v>
+        <v>10.32998924948517</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>35.93937865844912</v>
+        <v>29.03628954651412</v>
       </c>
       <c r="G18">
-        <v>38.49987905985508</v>
+        <v>33.01603335951284</v>
       </c>
       <c r="H18">
-        <v>16.55273929125008</v>
+        <v>10.69253831687167</v>
       </c>
       <c r="I18">
-        <v>23.58955913568658</v>
+        <v>15.61309330515072</v>
       </c>
       <c r="J18">
-        <v>11.48388321556867</v>
+        <v>9.17088954812631</v>
       </c>
       <c r="K18">
-        <v>12.07017685991233</v>
+        <v>14.9427575632056</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.28509437183984</v>
+        <v>11.87973693561176</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.89459924338803</v>
+        <v>16.33805267068708</v>
       </c>
       <c r="C19">
-        <v>7.192357233090791</v>
+        <v>10.77305082853004</v>
       </c>
       <c r="D19">
-        <v>10.33470976607483</v>
+        <v>10.29036759353383</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>35.93517913827127</v>
+        <v>28.9701884556981</v>
       </c>
       <c r="G19">
-        <v>38.49460090266673</v>
+        <v>32.9391151482155</v>
       </c>
       <c r="H19">
-        <v>16.55544297838869</v>
+        <v>10.68823649879693</v>
       </c>
       <c r="I19">
-        <v>23.59442521858637</v>
+        <v>15.60989309910445</v>
       </c>
       <c r="J19">
-        <v>11.48125437532371</v>
+        <v>9.145490692940687</v>
       </c>
       <c r="K19">
-        <v>12.05375072117404</v>
+        <v>14.87880853104435</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.29025351546336</v>
+        <v>11.89947098956818</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.99966648055333</v>
+        <v>16.65997952391175</v>
       </c>
       <c r="C20">
-        <v>7.269464723556592</v>
+        <v>10.99042268786144</v>
       </c>
       <c r="D20">
-        <v>10.37305065961076</v>
+        <v>10.4678717424781</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>35.95467442342221</v>
+        <v>29.26862770304301</v>
       </c>
       <c r="G20">
-        <v>38.51911897771457</v>
+        <v>33.28687708325507</v>
       </c>
       <c r="H20">
-        <v>16.54346910109908</v>
+        <v>10.70824324566396</v>
       </c>
       <c r="I20">
-        <v>23.57283975075884</v>
+        <v>15.62544675594184</v>
       </c>
       <c r="J20">
-        <v>11.49323416704279</v>
+        <v>9.25973990685573</v>
       </c>
       <c r="K20">
-        <v>12.12764486301231</v>
+        <v>15.16477093719613</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.2671551580049</v>
+        <v>11.8107873639296</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.34849742984257</v>
+        <v>17.70501091568374</v>
       </c>
       <c r="C21">
-        <v>7.524297417109025</v>
+        <v>11.69752930275074</v>
       </c>
       <c r="D21">
-        <v>10.503165667347</v>
+        <v>11.05016491031575</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>36.03059443535048</v>
+        <v>30.28811902441706</v>
       </c>
       <c r="G21">
-        <v>38.61486742226513</v>
+        <v>34.48344256358136</v>
       </c>
       <c r="H21">
-        <v>16.50661978307249</v>
+        <v>10.7871439667133</v>
       </c>
       <c r="I21">
-        <v>23.50579321498287</v>
+        <v>15.69858289477398</v>
       </c>
       <c r="J21">
-        <v>11.53608443586168</v>
+        <v>9.642565754910775</v>
       </c>
       <c r="K21">
-        <v>12.3752462514846</v>
+        <v>16.09405024597257</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>19.19161390534553</v>
+        <v>11.51478149881289</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.57296369483239</v>
+        <v>18.36110147595927</v>
       </c>
       <c r="C22">
-        <v>7.68740725474076</v>
+        <v>12.14267690424403</v>
       </c>
       <c r="D22">
-        <v>10.58904712483834</v>
+        <v>11.420099076714</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>36.0879383666405</v>
+        <v>30.96658058077367</v>
       </c>
       <c r="G22">
-        <v>38.68736662493448</v>
+        <v>35.28618668976108</v>
       </c>
       <c r="H22">
-        <v>16.4850607672858</v>
+        <v>10.84782916399756</v>
       </c>
       <c r="I22">
-        <v>23.46606870506753</v>
+        <v>15.762809424409</v>
       </c>
       <c r="J22">
-        <v>11.56600141257911</v>
+        <v>9.891797334353443</v>
       </c>
       <c r="K22">
-        <v>12.53629400652379</v>
+        <v>16.6782218125275</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>19.14377681103671</v>
+        <v>11.32256686978985</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.45350808015608</v>
+        <v>18.01336974766847</v>
       </c>
       <c r="C23">
-        <v>7.600684081081782</v>
+        <v>11.90662586957815</v>
       </c>
       <c r="D23">
-        <v>10.54314116530989</v>
+        <v>11.22363625442535</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>36.056628688542</v>
+        <v>30.60337847726003</v>
       </c>
       <c r="G23">
-        <v>38.64776774969442</v>
+        <v>34.85586427438835</v>
       </c>
       <c r="H23">
-        <v>16.49633601105703</v>
+        <v>10.81457927233804</v>
       </c>
       <c r="I23">
-        <v>23.48689505927204</v>
+        <v>15.72697139281257</v>
       </c>
       <c r="J23">
-        <v>11.54986095135268</v>
+        <v>9.75887699376303</v>
       </c>
       <c r="K23">
-        <v>12.45042778654703</v>
+        <v>16.36853659654495</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>19.16916846328941</v>
+        <v>11.42505622869829</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.99391136011482</v>
+        <v>16.64243946751704</v>
       </c>
       <c r="C24">
-        <v>7.265245541691965</v>
+        <v>10.97857387911281</v>
       </c>
       <c r="D24">
-        <v>10.37093998124171</v>
+        <v>10.45817668685373</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>35.95356455084398</v>
+        <v>29.25217475563503</v>
       </c>
       <c r="G24">
-        <v>38.51772216443907</v>
+        <v>33.26767308618889</v>
       </c>
       <c r="H24">
-        <v>16.54411393942513</v>
+        <v>10.70710167466654</v>
       </c>
       <c r="I24">
-        <v>23.57400454453745</v>
+        <v>15.62451627681033</v>
       </c>
       <c r="J24">
-        <v>11.49256645060157</v>
+        <v>9.253469213047996</v>
       </c>
       <c r="K24">
-        <v>12.1235887732084</v>
+        <v>15.14918659648286</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.26841582046516</v>
+        <v>11.81564953963849</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.48573339505858</v>
+        <v>15.04576541297727</v>
       </c>
       <c r="C25">
-        <v>6.890544275511578</v>
+        <v>9.902498765811064</v>
       </c>
       <c r="D25">
-        <v>10.1895993685566</v>
+        <v>9.587854406751276</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>35.87579684522795</v>
+        <v>27.84929340365466</v>
       </c>
       <c r="G25">
-        <v>38.42029706366613</v>
+        <v>31.64526970571441</v>
       </c>
       <c r="H25">
-        <v>16.60646035996067</v>
+        <v>10.62765048534031</v>
       </c>
       <c r="I25">
-        <v>23.68546783406977</v>
+        <v>15.57893412612374</v>
       </c>
       <c r="J25">
-        <v>11.43913486467098</v>
+        <v>8.705551411607319</v>
       </c>
       <c r="K25">
-        <v>11.76950625880577</v>
+        <v>13.73242940637523</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.3820957921879</v>
+        <v>12.24367971617717</v>
       </c>
       <c r="O25">
         <v>0</v>
